--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -91,7 +91,7 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>3.311008580472889</v>
+        <v>2.756668081769111</v>
       </c>
       <c r="R2">
-        <v>29.799077224256</v>
+        <v>24.810012735922</v>
       </c>
       <c r="S2">
-        <v>0.06590122147478844</v>
+        <v>0.05890043932335494</v>
       </c>
       <c r="T2">
-        <v>0.06590122147478845</v>
+        <v>0.05890043932335494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
-        <v>4.888195525337777</v>
+        <v>3.735960481472778</v>
       </c>
       <c r="R3">
-        <v>43.99375972804</v>
+        <v>33.623644333255</v>
       </c>
       <c r="S3">
-        <v>0.09729302963067099</v>
+        <v>0.07982452262160659</v>
       </c>
       <c r="T3">
-        <v>0.09729302963067102</v>
+        <v>0.07982452262160659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>0.2051735017911111</v>
+        <v>0.008599336027333333</v>
       </c>
       <c r="R4">
-        <v>1.84656151612</v>
+        <v>0.07739402424599999</v>
       </c>
       <c r="S4">
-        <v>0.004083705630374046</v>
+        <v>0.0001837379963328897</v>
       </c>
       <c r="T4">
-        <v>0.004083705630374047</v>
+        <v>0.0001837379963328897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H5">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I5">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J5">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>0.01893005043644444</v>
+        <v>0.126400750056</v>
       </c>
       <c r="R5">
-        <v>0.170370453928</v>
+        <v>1.137606750504</v>
       </c>
       <c r="S5">
-        <v>0.0003767774730933699</v>
+        <v>0.002700745787400731</v>
       </c>
       <c r="T5">
-        <v>0.00037677747309337</v>
+        <v>0.002700745787400731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.624959</v>
       </c>
       <c r="I6">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J6">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>14.69988785336978</v>
+        <v>16.01343452900422</v>
       </c>
       <c r="R6">
-        <v>132.298990680328</v>
+        <v>144.120910761038</v>
       </c>
       <c r="S6">
-        <v>0.2925817138598643</v>
+        <v>0.3421515760536633</v>
       </c>
       <c r="T6">
-        <v>0.2925817138598644</v>
+        <v>0.3421515760536634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>21.70212618946056</v>
@@ -883,10 +883,10 @@
         <v>195.319135705145</v>
       </c>
       <c r="S7">
-        <v>0.4319519535286681</v>
+        <v>0.4636991936982773</v>
       </c>
       <c r="T7">
-        <v>0.4319519535286682</v>
+        <v>0.4636991936982774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J8">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>0.9109089854372222</v>
+        <v>0.04995338589266667</v>
       </c>
       <c r="R8">
-        <v>8.198180868935001</v>
+        <v>0.449580473034</v>
       </c>
       <c r="S8">
-        <v>0.01813043165961821</v>
+        <v>0.001067330664226693</v>
       </c>
       <c r="T8">
-        <v>0.01813043165961822</v>
+        <v>0.001067330664226693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J9">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.08404376240988891</v>
+        <v>0.734259648024</v>
       </c>
       <c r="R9">
-        <v>0.7563938616890001</v>
+        <v>6.608336832216001</v>
       </c>
       <c r="S9">
-        <v>0.001672779295352218</v>
+        <v>0.01568858294259014</v>
       </c>
       <c r="T9">
-        <v>0.001672779295352218</v>
+        <v>0.01568858294259015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H10">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I10">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J10">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N10">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q10">
-        <v>1.738075142151111</v>
+        <v>0.6965937496553333</v>
       </c>
       <c r="R10">
-        <v>15.64267627936</v>
+        <v>6.269343746898</v>
       </c>
       <c r="S10">
-        <v>0.03459407370861167</v>
+        <v>0.01488379328507014</v>
       </c>
       <c r="T10">
-        <v>0.03459407370861167</v>
+        <v>0.01488379328507014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H11">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I11">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J11">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q11">
-        <v>2.566000940822222</v>
+        <v>0.9440551575883332</v>
       </c>
       <c r="R11">
-        <v>23.0940084674</v>
+        <v>8.496496418294999</v>
       </c>
       <c r="S11">
-        <v>0.05107283542028423</v>
+        <v>0.02017118560452401</v>
       </c>
       <c r="T11">
-        <v>0.05107283542028425</v>
+        <v>0.02017118560452401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1148,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H12">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I12">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J12">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q12">
-        <v>0.1077034246888889</v>
+        <v>0.002173001446</v>
       </c>
       <c r="R12">
-        <v>0.9693308222</v>
+        <v>0.019557013014</v>
       </c>
       <c r="S12">
-        <v>0.002143693400819256</v>
+        <v>4.64295069348888E-05</v>
       </c>
       <c r="T12">
-        <v>0.002143693400819256</v>
+        <v>4.64295069348888E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H13">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I13">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J13">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N13">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q13">
-        <v>0.009937108075555557</v>
+        <v>0.031940723304</v>
       </c>
       <c r="R13">
-        <v>0.08943397268</v>
+        <v>0.287466509736</v>
       </c>
       <c r="S13">
-        <v>0.0001977849178550196</v>
+        <v>0.0006824625160182394</v>
       </c>
       <c r="T13">
-        <v>0.0001977849178550197</v>
+        <v>0.0006824625160182394</v>
       </c>
     </row>
   </sheetData>
